--- a/Competition 2022-23 (réponses).xlsx
+++ b/Competition 2022-23 (réponses).xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Réponses au formulaire 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Réponses au formulaire 1'!$A$1:$G$30</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Réponses au formulaire 1'!$A$1:$G$35</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="91">
   <si>
     <t>Horodateur</t>
   </si>
@@ -256,6 +256,39 @@
   </si>
   <si>
     <t>Romane Gay</t>
+  </si>
+  <si>
+    <t>anthonyandral@gmail.com</t>
+  </si>
+  <si>
+    <t>Anthony ANDRAL</t>
+  </si>
+  <si>
+    <t>michmuchp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel PRÉVOST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportivement </t>
+  </si>
+  <si>
+    <t>jerome.carlier76@sfr.fr</t>
+  </si>
+  <si>
+    <t>Jerome carlier</t>
+  </si>
+  <si>
+    <t>gnafnaf68@hotmail.fr</t>
+  </si>
+  <si>
+    <t>Sandra Mergel</t>
+  </si>
+  <si>
+    <t>desrousseaux.sophie@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESROUSSEAUX Sophie </t>
   </si>
 </sst>
 </file>
@@ -1156,8 +1189,108 @@
         <v>10</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>44841.73890048611</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>44842.39573866898</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>44842.508429814814</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>44842.54468648148</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>44842.73539555556</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$30">
+  <autoFilter ref="$A$1:$G$35">
     <filterColumn colId="3">
       <filters>
         <filter val="Oui"/>
